--- a/data/islas_asignacion.xlsx
+++ b/data/islas_asignacion.xlsx
@@ -1330,25 +1330,25 @@
     <t>2022/03/13</t>
   </si>
   <si>
-    <t>EL HIERRO</t>
-  </si>
-  <si>
-    <t>FUERTEVENTURA</t>
-  </si>
-  <si>
-    <t>GRAN CANARIA</t>
-  </si>
-  <si>
-    <t>LA GOMERA</t>
-  </si>
-  <si>
-    <t>LA PALMA</t>
-  </si>
-  <si>
-    <t>LANZAROTE</t>
-  </si>
-  <si>
-    <t>TENERIFE</t>
+    <t>El Hierro</t>
+  </si>
+  <si>
+    <t>Fuerteventura</t>
+  </si>
+  <si>
+    <t>Gran Canaria</t>
+  </si>
+  <si>
+    <t>La Gomera</t>
+  </si>
+  <si>
+    <t>La Palma</t>
+  </si>
+  <si>
+    <t>Lanzarote</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
   </si>
 </sst>
 </file>
